--- a/Format Painter.xlsx
+++ b/Format Painter.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\firoz\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\Vi.685\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4B169C-0209-46AC-8FF0-FD55C4DEB912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{BF5DA742-A39E-4C6A-A183-936E033248CD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="2" r:id="rId1"/>
@@ -21,7 +20,7 @@
     <sheet name="6" sheetId="7" r:id="rId6"/>
     <sheet name="7" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="24">
   <si>
     <t>Name</t>
   </si>
@@ -94,12 +93,21 @@
   </si>
   <si>
     <t>HIGHLIGHT THE RECORDS HAVING RAJKOT CITY AND CE DEPT AS PER MENTIONED IN B1 AND B2 CELL</t>
+  </si>
+  <si>
+    <t>Vishal</t>
+  </si>
+  <si>
+    <t>Pujan</t>
+  </si>
+  <si>
+    <t>abc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -189,7 +197,190 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -498,11 +689,113 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD4C30E-972E-44AF-BF11-69D624E02F15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A5:C8">
+    <cfRule type="expression" dxfId="10" priority="1">
+      <formula>AND($B5="Rajkot",$C5="CE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,116 +878,28 @@
     </row>
     <row r="11" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{178BBB10-9FE2-4D0B-9391-BEB9062154D7}">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
+  <conditionalFormatting sqref="A5:C8">
+    <cfRule type="expression" priority="2">
+      <formula>OR($B5="Rajkot",$C5="CE")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="1">
+      <formula>OR($B5="Rajkot",$C5="CE")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E43F44E6-98ED-460F-8978-89FE5A5DF292}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,16 +943,24 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:A6">
+    <cfRule type="expression" dxfId="8" priority="2">
+      <formula>$A2="Raj"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Raj">
+      <formula>NOT(ISERROR(SEARCH("Raj",A2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E4AF35-F42B-4D0A-9CBC-801FCB02DD27}">
-  <dimension ref="A1:C12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,7 +968,7 @@
     <col min="1" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -766,53 +979,71 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="5"/>
+    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
     </row>
-    <row r="12" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:C10">
+    <cfRule type="expression" dxfId="5" priority="2">
+      <formula>$A2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>$A2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F99485-B2F9-4744-9CF0-4F12CD99244B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,16 +1087,19 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:A6">
+    <cfRule type="uniqueValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31486848-132D-4C69-9173-937987B83D33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A1:C7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,16 +1188,21 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:C7">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>OR($B2="Rajkot",$C2="CE")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9D8BD50-EA97-454A-B792-B0E38D37027B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1058,7 +1297,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C7">
-    <cfRule type="iconSet" priority="1">
+    <cfRule type="iconSet" priority="2">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -1066,6 +1305,11 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A4:D7">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$D4&gt;6</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>